--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
   <si>
     <t>描述</t>
   </si>
@@ -261,6 +261,309 @@
   </si>
   <si>
     <t>AddSkillPoint</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>“上等精铁铸成，锋利无比”</t>
+  </si>
+  <si>
+    <t>EQUIP</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1001</t>
+  </si>
+  <si>
+    <t>铁盾</t>
+  </si>
+  <si>
+    <t>“上等精铁铸成”</t>
+  </si>
+  <si>
+    <t>配件</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1002</t>
+  </si>
+  <si>
+    <t>铁头盔</t>
+  </si>
+  <si>
+    <t>防具</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1003</t>
+  </si>
+  <si>
+    <t>铁胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1004</t>
+  </si>
+  <si>
+    <t>铁肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1005</t>
+  </si>
+  <si>
+    <t>铁裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1006</t>
+  </si>
+  <si>
+    <t>铁靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1007</t>
+  </si>
+  <si>
+    <t>桃木法杖</t>
+  </si>
+  <si>
+    <t>“百年桃木制成”</t>
+  </si>
+  <si>
+    <t>WIZARD</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2001</t>
+  </si>
+  <si>
+    <t>牛皮法典</t>
+  </si>
+  <si>
+    <t>“最健壮的牛皮所制”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2002</t>
+  </si>
+  <si>
+    <t>布巾</t>
+  </si>
+  <si>
+    <t>“采用上等布料，上等工艺”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2003</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2004</t>
+  </si>
+  <si>
+    <t>布肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2005</t>
+  </si>
+  <si>
+    <t>布裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2006</t>
+  </si>
+  <si>
+    <t>布靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2007</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>“韧性十足”</t>
+  </si>
+  <si>
+    <t>ARCHER</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3001</t>
+  </si>
+  <si>
+    <t>皮箭袋</t>
+  </si>
+  <si>
+    <t>“顶级野兽皮革所制”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3002</t>
+  </si>
+  <si>
+    <t>皮帽</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3003</t>
+  </si>
+  <si>
+    <t>皮衣</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3004</t>
+  </si>
+  <si>
+    <t>皮肩</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3005</t>
+  </si>
+  <si>
+    <t>皮裤</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3006</t>
+  </si>
+  <si>
+    <t>皮靴</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3007</t>
+  </si>
+  <si>
+    <t>星辰之剑</t>
+  </si>
+  <si>
+    <t>“星辰之力，孕育其中”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1011</t>
+  </si>
+  <si>
+    <t>星辰护盾</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1012</t>
+  </si>
+  <si>
+    <t>星辰头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1013</t>
+  </si>
+  <si>
+    <t>星辰胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1014</t>
+  </si>
+  <si>
+    <t>星辰肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1015</t>
+  </si>
+  <si>
+    <t>星辰裤子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1016</t>
+  </si>
+  <si>
+    <t>星辰靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip1017</t>
+  </si>
+  <si>
+    <t>逐日法杖</t>
+  </si>
+  <si>
+    <t>“拥有太阳般的力量”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2011</t>
+  </si>
+  <si>
+    <t>逐日法典</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2012</t>
+  </si>
+  <si>
+    <t>逐日头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2013</t>
+  </si>
+  <si>
+    <t>逐日胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2014</t>
+  </si>
+  <si>
+    <t>逐日肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2015</t>
+  </si>
+  <si>
+    <t>逐日裤子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2016</t>
+  </si>
+  <si>
+    <t>逐日靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip2017</t>
+  </si>
+  <si>
+    <t>伴月长弓</t>
+  </si>
+  <si>
+    <t>“月亮女神赐予”</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3011</t>
+  </si>
+  <si>
+    <t>伴月箭袋</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3012</t>
+  </si>
+  <si>
+    <t>伴月头盔</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3013</t>
+  </si>
+  <si>
+    <t>伴月胸甲</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3014</t>
+  </si>
+  <si>
+    <t>伴月肩膀</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3015</t>
+  </si>
+  <si>
+    <t>伴月裤子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3016</t>
+  </si>
+  <si>
+    <t>伴月靴子</t>
+  </si>
+  <si>
+    <t>UI/Items/equip3017</t>
   </si>
 </sst>
 </file>
@@ -273,7 +576,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -294,6 +597,17 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -816,28 +1130,19 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,152 +1151,161 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1024,6 +1338,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1368,8 +1700,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q13" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q13" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q55" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q55" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1680,10 +2012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="13.2"/>
@@ -2296,6 +2628,1728 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="13">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1001</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17">
+        <v>5</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="13">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
+        <v>5</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="13">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17">
+        <v>5</v>
+      </c>
+      <c r="M16" s="17">
+        <v>1</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="13">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1004</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17">
+        <v>5</v>
+      </c>
+      <c r="M17" s="17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="13">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1005</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17">
+        <v>5</v>
+      </c>
+      <c r="M18" s="17">
+        <v>1</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="13">
+        <v>1006</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17">
+        <v>5</v>
+      </c>
+      <c r="M19" s="17">
+        <v>1</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="13">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1007</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17">
+        <v>5</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17">
+        <v>5</v>
+      </c>
+      <c r="M21" s="17">
+        <v>1</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2002</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17">
+        <v>5</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2003</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17">
+        <v>5</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="16">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2004</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17">
+        <v>5</v>
+      </c>
+      <c r="M24" s="17">
+        <v>1</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="16"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="16">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2005</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17">
+        <v>5</v>
+      </c>
+      <c r="M25" s="17">
+        <v>1</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="16">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2006</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17">
+        <v>5</v>
+      </c>
+      <c r="M26" s="17">
+        <v>1</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26" s="16"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2007</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17">
+        <v>5</v>
+      </c>
+      <c r="M27" s="17">
+        <v>1</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" s="16"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="16">
+        <v>3001</v>
+      </c>
+      <c r="B28" s="16">
+        <v>3001</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17">
+        <v>5</v>
+      </c>
+      <c r="M28" s="17">
+        <v>1</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" s="16"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="16">
+        <v>3002</v>
+      </c>
+      <c r="B29" s="16">
+        <v>3002</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
+      <c r="M29" s="17">
+        <v>1</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="16">
+        <v>3003</v>
+      </c>
+      <c r="B30" s="16">
+        <v>3003</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17">
+        <v>5</v>
+      </c>
+      <c r="M30" s="17">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="16">
+        <v>3004</v>
+      </c>
+      <c r="B31" s="16">
+        <v>3004</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17">
+        <v>5</v>
+      </c>
+      <c r="M31" s="17">
+        <v>1</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="16">
+        <v>3005</v>
+      </c>
+      <c r="B32" s="16">
+        <v>3005</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17">
+        <v>5</v>
+      </c>
+      <c r="M32" s="17">
+        <v>1</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="16">
+        <v>3006</v>
+      </c>
+      <c r="B33" s="16">
+        <v>3006</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17">
+        <v>5</v>
+      </c>
+      <c r="M33" s="17">
+        <v>1</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="16">
+        <v>3007</v>
+      </c>
+      <c r="B34" s="16">
+        <v>3007</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17">
+        <v>5</v>
+      </c>
+      <c r="M34" s="17">
+        <v>1</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O34" s="16"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="16">
+        <v>1011</v>
+      </c>
+      <c r="B35" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="15">
+        <v>10</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17">
+        <v>5</v>
+      </c>
+      <c r="M35" s="17">
+        <v>1</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="16">
+        <v>1012</v>
+      </c>
+      <c r="B36" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="15">
+        <v>10</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17">
+        <v>5</v>
+      </c>
+      <c r="M36" s="17">
+        <v>1</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="16">
+        <v>1013</v>
+      </c>
+      <c r="B37" s="16">
+        <v>1013</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="15">
+        <v>10</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17">
+        <v>5</v>
+      </c>
+      <c r="M37" s="17">
+        <v>1</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="16"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="16">
+        <v>1014</v>
+      </c>
+      <c r="B38" s="16">
+        <v>1014</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="15">
+        <v>10</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17">
+        <v>5</v>
+      </c>
+      <c r="M38" s="17">
+        <v>1</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="16">
+        <v>1015</v>
+      </c>
+      <c r="B39" s="16">
+        <v>1015</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="15">
+        <v>10</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17">
+        <v>5</v>
+      </c>
+      <c r="M39" s="17">
+        <v>1</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="16">
+        <v>1016</v>
+      </c>
+      <c r="B40" s="16">
+        <v>1016</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="15">
+        <v>10</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17">
+        <v>5</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O40" s="16"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="16">
+        <v>1017</v>
+      </c>
+      <c r="B41" s="16">
+        <v>1017</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="15">
+        <v>10</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17">
+        <v>5</v>
+      </c>
+      <c r="M41" s="17">
+        <v>1</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O41" s="16"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="16">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="15">
+        <v>10</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17">
+        <v>5</v>
+      </c>
+      <c r="M42" s="17">
+        <v>1</v>
+      </c>
+      <c r="N42" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" s="16"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="16">
+        <v>2012</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="15">
+        <v>10</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17">
+        <v>5</v>
+      </c>
+      <c r="M43" s="17">
+        <v>1</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O43" s="16"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="15">
+        <v>10</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17">
+        <v>5</v>
+      </c>
+      <c r="M44" s="17">
+        <v>1</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O44" s="16"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B45" s="16">
+        <v>2014</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="15">
+        <v>10</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17">
+        <v>5</v>
+      </c>
+      <c r="M45" s="17">
+        <v>1</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45" s="16"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B46" s="16">
+        <v>2015</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="15">
+        <v>10</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17">
+        <v>5</v>
+      </c>
+      <c r="M46" s="17">
+        <v>1</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="16">
+        <v>2016</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="15">
+        <v>10</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17">
+        <v>5</v>
+      </c>
+      <c r="M47" s="17">
+        <v>1</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O47" s="16"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2017</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="15">
+        <v>10</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17">
+        <v>5</v>
+      </c>
+      <c r="M48" s="17">
+        <v>1</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48" s="16"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="16">
+        <v>3011</v>
+      </c>
+      <c r="B49" s="16">
+        <v>3011</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="15">
+        <v>10</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17">
+        <v>5</v>
+      </c>
+      <c r="M49" s="17">
+        <v>1</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O49" s="16"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="16">
+        <v>3012</v>
+      </c>
+      <c r="B50" s="16">
+        <v>3012</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="15">
+        <v>10</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17">
+        <v>5</v>
+      </c>
+      <c r="M50" s="17">
+        <v>1</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" s="16"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="16">
+        <v>3013</v>
+      </c>
+      <c r="B51" s="16">
+        <v>3013</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="15">
+        <v>10</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17">
+        <v>5</v>
+      </c>
+      <c r="M51" s="17">
+        <v>1</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="16">
+        <v>3014</v>
+      </c>
+      <c r="B52" s="16">
+        <v>3014</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="15">
+        <v>10</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17">
+        <v>5</v>
+      </c>
+      <c r="M52" s="17">
+        <v>1</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O52" s="16"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="16">
+        <v>3015</v>
+      </c>
+      <c r="B53" s="16">
+        <v>3015</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="15">
+        <v>10</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="15"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17">
+        <v>5</v>
+      </c>
+      <c r="M53" s="17">
+        <v>1</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O53" s="16"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="16">
+        <v>3016</v>
+      </c>
+      <c r="B54" s="16">
+        <v>3016</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="15">
+        <v>10</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17">
+        <v>5</v>
+      </c>
+      <c r="M54" s="17">
+        <v>1</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O54" s="16"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="16">
+        <v>3017</v>
+      </c>
+      <c r="B55" s="16">
+        <v>3017</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="15">
+        <v>10</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17">
+        <v>5</v>
+      </c>
+      <c r="M55" s="17">
+        <v>1</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Src/Data/Tables/ItemDefine.xlsx
+++ b/Src/Data/Tables/ItemDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="208">
   <si>
     <t>描述</t>
   </si>
@@ -564,6 +564,93 @@
   </si>
   <si>
     <t>UI/Items/equip3017</t>
+  </si>
+  <si>
+    <t>鸟语花香</t>
+  </si>
+  <si>
+    <t>"治愈之力，可令枯木逢春，驱散一切负面诅咒"</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>坐骑</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8001</t>
+  </si>
+  <si>
+    <t>紫煌灭世龙</t>
+  </si>
+  <si>
+    <t>"掌控湮灭法则，可释放撕裂空间的「煌灭吐息]"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞祥麒麟 </t>
+  </si>
+  <si>
+    <t>"身覆玉质鳞甲，四足踏金云，鹿角缠绕祥瑞之气，鬃毛如流霞织锦。行过之处地涌甘泉、天降虹桥，额间「瑞印」能洞悉人心善恶，唯有至纯至善者方可近其身"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8003</t>
+  </si>
+  <si>
+    <t>雨之仙剑</t>
+  </si>
+  <si>
+    <t>"并非生灵，而是一柄通灵古剑幻化的坐骑——剑身如寒潭凝露"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8004</t>
+  </si>
+  <si>
+    <t>知更鸟</t>
+  </si>
+  <si>
+    <t>"啼鸣可唤醒沉睡的灵魂。传说它知晓世间所有秘密，只在黄昏与黎明交界时现身"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8005</t>
+  </si>
+  <si>
+    <t>九尾天狐</t>
+  </si>
+  <si>
+    <t>"幻术主宰，九尾各具一法，雪色皮毛上浮现金色咒文，九尾摇曳时如月华倾泻"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8006</t>
+  </si>
+  <si>
+    <t>熔岩之兽</t>
+  </si>
+  <si>
+    <t>"形如巨犀，背甲龟裂处流淌炽金岩浆，蹄踏之地化为焦土。呼吸间喷吐硫磺烟云，怒吼时火山喷发相随。体内核心是一颗永恒燃烧的「地心火种」,可吸收岩浆无限再生。"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8007</t>
+  </si>
+  <si>
+    <t>星空之王</t>
+  </si>
+  <si>
+    <t>"身躯透明如夜幕，体内星辰流转构成星座图谱，双翼展开时似将银河披覆于身"</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8008</t>
+  </si>
+  <si>
+    <t>水泽黑龙</t>
+  </si>
+  <si>
+    <t>"龙鳞幽蓝如深海玄冰，脊刺如冰川棱柱，龙须似湍急暗流."</t>
+  </si>
+  <si>
+    <t>UI/Ride/Ride8009</t>
   </si>
 </sst>
 </file>
@@ -576,7 +663,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -597,17 +684,6 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1130,19 +1206,28 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,161 +1236,152 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1339,22 +1415,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1700,8 +1767,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q55" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q55" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q64" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Q64" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -2012,10 +2079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="13.2"/>
@@ -2628,1727 +2695,1994 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="13">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
         <v>1001</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="1">
         <v>1001</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17">
-        <v>5</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14">
+        <v>5</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="13">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
         <v>1002</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="1">
         <v>1002</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17">
-        <v>5</v>
-      </c>
-      <c r="M15" s="17">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14">
+        <v>5</v>
+      </c>
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="13">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
         <v>1003</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="1">
         <v>1003</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17">
-        <v>5</v>
-      </c>
-      <c r="M16" s="17">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14">
+        <v>5</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="13">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
         <v>1004</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="1">
         <v>1004</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17">
-        <v>5</v>
-      </c>
-      <c r="M17" s="17">
-        <v>1</v>
-      </c>
-      <c r="N17" s="13" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
+        <v>5</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="13">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
         <v>1005</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="1">
         <v>1005</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17">
-        <v>5</v>
-      </c>
-      <c r="M18" s="17">
-        <v>1</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14">
+        <v>5</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="13">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
         <v>1006</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="1">
         <v>1006</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17">
-        <v>5</v>
-      </c>
-      <c r="M19" s="17">
-        <v>1</v>
-      </c>
-      <c r="N19" s="13" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14">
+        <v>5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="13">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
         <v>1007</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="1">
         <v>1007</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17">
-        <v>5</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1</v>
-      </c>
-      <c r="N20" s="13" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="13">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
         <v>2001</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="1">
         <v>2001</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17">
-        <v>5</v>
-      </c>
-      <c r="M21" s="17">
-        <v>1</v>
-      </c>
-      <c r="N21" s="17" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14">
+        <v>5</v>
+      </c>
+      <c r="M21" s="14">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="13">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>2002</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="1">
         <v>2002</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="15">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17">
-        <v>5</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1</v>
-      </c>
-      <c r="N22" s="17" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14">
+        <v>5</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="13">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
         <v>2003</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="1">
         <v>2003</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="15">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17">
-        <v>5</v>
-      </c>
-      <c r="M23" s="17">
-        <v>1</v>
-      </c>
-      <c r="N23" s="17" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14">
+        <v>5</v>
+      </c>
+      <c r="M23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="16">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2">
         <v>2004</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="2">
         <v>2004</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="15">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17">
-        <v>5</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1</v>
-      </c>
-      <c r="N24" s="17" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14">
+        <v>5</v>
+      </c>
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="16">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2">
         <v>2005</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="2">
         <v>2005</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="15">
-        <v>1</v>
-      </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17">
-        <v>5</v>
-      </c>
-      <c r="M25" s="17">
-        <v>1</v>
-      </c>
-      <c r="N25" s="17" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14">
+        <v>5</v>
+      </c>
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="16">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2">
         <v>2006</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="2">
         <v>2006</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17">
-        <v>5</v>
-      </c>
-      <c r="M26" s="17">
-        <v>1</v>
-      </c>
-      <c r="N26" s="17" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14">
+        <v>5</v>
+      </c>
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="16">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2">
         <v>2007</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="2">
         <v>2007</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="15">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17">
-        <v>5</v>
-      </c>
-      <c r="M27" s="17">
-        <v>1</v>
-      </c>
-      <c r="N27" s="17" t="s">
+      <c r="I27" s="12"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14">
+        <v>5</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+      <c r="N27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="16">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2">
         <v>3001</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="2">
         <v>3001</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17">
-        <v>5</v>
-      </c>
-      <c r="M28" s="17">
-        <v>1</v>
-      </c>
-      <c r="N28" s="17" t="s">
+      <c r="I28" s="12"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14">
+        <v>5</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="16">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2">
         <v>3002</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="2">
         <v>3002</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="15">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17">
-        <v>5</v>
-      </c>
-      <c r="M29" s="17">
-        <v>1</v>
-      </c>
-      <c r="N29" s="17" t="s">
+      <c r="I29" s="12"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14">
+        <v>5</v>
+      </c>
+      <c r="M29" s="14">
+        <v>1</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="16">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
         <v>3003</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="2">
         <v>3003</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17">
-        <v>5</v>
-      </c>
-      <c r="M30" s="17">
-        <v>1</v>
-      </c>
-      <c r="N30" s="17" t="s">
+      <c r="I30" s="12"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14">
+        <v>5</v>
+      </c>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="16">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="2">
         <v>3004</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="2">
         <v>3004</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15" t="s">
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17">
-        <v>5</v>
-      </c>
-      <c r="M31" s="17">
-        <v>1</v>
-      </c>
-      <c r="N31" s="17" t="s">
+      <c r="I31" s="12"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14">
+        <v>5</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1</v>
+      </c>
+      <c r="N31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="16">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2">
         <v>3005</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="2">
         <v>3005</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15" t="s">
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17">
-        <v>5</v>
-      </c>
-      <c r="M32" s="17">
-        <v>1</v>
-      </c>
-      <c r="N32" s="17" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14">
+        <v>5</v>
+      </c>
+      <c r="M32" s="14">
+        <v>1</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="16">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2">
         <v>3006</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="2">
         <v>3006</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="15">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15" t="s">
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17">
-        <v>5</v>
-      </c>
-      <c r="M33" s="17">
-        <v>1</v>
-      </c>
-      <c r="N33" s="17" t="s">
+      <c r="I33" s="12"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14">
+        <v>5</v>
+      </c>
+      <c r="M33" s="14">
+        <v>1</v>
+      </c>
+      <c r="N33" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="16">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2">
         <v>3007</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="2">
         <v>3007</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17">
-        <v>5</v>
-      </c>
-      <c r="M34" s="17">
-        <v>1</v>
-      </c>
-      <c r="N34" s="17" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14">
+        <v>5</v>
+      </c>
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="16">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2">
         <v>1011</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="2">
         <v>1011</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>10</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17">
-        <v>5</v>
-      </c>
-      <c r="M35" s="17">
-        <v>1</v>
-      </c>
-      <c r="N35" s="17" t="s">
+      <c r="I35" s="12"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14">
+        <v>5</v>
+      </c>
+      <c r="M35" s="14">
+        <v>1</v>
+      </c>
+      <c r="N35" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="16">
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2">
         <v>1012</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="2">
         <v>1012</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="12">
         <v>10</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17">
-        <v>5</v>
-      </c>
-      <c r="M36" s="17">
-        <v>1</v>
-      </c>
-      <c r="N36" s="17" t="s">
+      <c r="I36" s="12"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14">
+        <v>5</v>
+      </c>
+      <c r="M36" s="14">
+        <v>1</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="16">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="2">
         <v>1013</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="2">
         <v>1013</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="12">
         <v>10</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17">
-        <v>5</v>
-      </c>
-      <c r="M37" s="17">
-        <v>1</v>
-      </c>
-      <c r="N37" s="17" t="s">
+      <c r="I37" s="12"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14">
+        <v>5</v>
+      </c>
+      <c r="M37" s="14">
+        <v>1</v>
+      </c>
+      <c r="N37" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="16">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2">
         <v>1014</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="2">
         <v>1014</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="12">
         <v>10</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17">
-        <v>5</v>
-      </c>
-      <c r="M38" s="17">
-        <v>1</v>
-      </c>
-      <c r="N38" s="17" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14">
+        <v>5</v>
+      </c>
+      <c r="M38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="16">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2">
         <v>1015</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="2">
         <v>1015</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="12">
         <v>10</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17">
-        <v>5</v>
-      </c>
-      <c r="M39" s="17">
-        <v>1</v>
-      </c>
-      <c r="N39" s="17" t="s">
+      <c r="I39" s="12"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14">
+        <v>5</v>
+      </c>
+      <c r="M39" s="14">
+        <v>1</v>
+      </c>
+      <c r="N39" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="16">
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2">
         <v>1016</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="2">
         <v>1016</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="12">
         <v>10</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17">
-        <v>5</v>
-      </c>
-      <c r="M40" s="17">
-        <v>1</v>
-      </c>
-      <c r="N40" s="17" t="s">
+      <c r="I40" s="12"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14">
+        <v>5</v>
+      </c>
+      <c r="M40" s="14">
+        <v>1</v>
+      </c>
+      <c r="N40" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="O40" s="16"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="16">
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2">
         <v>1017</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="2">
         <v>1017</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="12">
         <v>10</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17">
-        <v>5</v>
-      </c>
-      <c r="M41" s="17">
-        <v>1</v>
-      </c>
-      <c r="N41" s="17" t="s">
+      <c r="I41" s="12"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14">
+        <v>5</v>
+      </c>
+      <c r="M41" s="14">
+        <v>1</v>
+      </c>
+      <c r="N41" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="16">
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2">
         <v>2011</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="2">
         <v>2011</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="12">
         <v>10</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17">
-        <v>5</v>
-      </c>
-      <c r="M42" s="17">
-        <v>1</v>
-      </c>
-      <c r="N42" s="17" t="s">
+      <c r="I42" s="12"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14">
+        <v>5</v>
+      </c>
+      <c r="M42" s="14">
+        <v>1</v>
+      </c>
+      <c r="N42" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="16">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2">
         <v>2012</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="2">
         <v>2012</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>10</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17">
-        <v>5</v>
-      </c>
-      <c r="M43" s="17">
-        <v>1</v>
-      </c>
-      <c r="N43" s="17" t="s">
+      <c r="I43" s="12"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14">
+        <v>5</v>
+      </c>
+      <c r="M43" s="14">
+        <v>1</v>
+      </c>
+      <c r="N43" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="16">
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2">
         <v>2013</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="2">
         <v>2013</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="12">
         <v>10</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17">
-        <v>5</v>
-      </c>
-      <c r="M44" s="17">
-        <v>1</v>
-      </c>
-      <c r="N44" s="17" t="s">
+      <c r="I44" s="12"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14">
+        <v>5</v>
+      </c>
+      <c r="M44" s="14">
+        <v>1</v>
+      </c>
+      <c r="N44" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="O44" s="16"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="16">
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2">
         <v>2014</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="2">
         <v>2014</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="12">
         <v>10</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17">
-        <v>5</v>
-      </c>
-      <c r="M45" s="17">
-        <v>1</v>
-      </c>
-      <c r="N45" s="17" t="s">
+      <c r="I45" s="12"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14">
+        <v>5</v>
+      </c>
+      <c r="M45" s="14">
+        <v>1</v>
+      </c>
+      <c r="N45" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="16">
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2">
         <v>2015</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="2">
         <v>2015</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="12">
         <v>10</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17">
-        <v>5</v>
-      </c>
-      <c r="M46" s="17">
-        <v>1</v>
-      </c>
-      <c r="N46" s="17" t="s">
+      <c r="I46" s="12"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14">
+        <v>5</v>
+      </c>
+      <c r="M46" s="14">
+        <v>1</v>
+      </c>
+      <c r="N46" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="16">
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2">
         <v>2016</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="2">
         <v>2016</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="12">
         <v>10</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17">
-        <v>5</v>
-      </c>
-      <c r="M47" s="17">
-        <v>1</v>
-      </c>
-      <c r="N47" s="17" t="s">
+      <c r="I47" s="12"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14">
+        <v>5</v>
+      </c>
+      <c r="M47" s="14">
+        <v>1</v>
+      </c>
+      <c r="N47" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="O47" s="16"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="16">
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2">
         <v>2017</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="2">
         <v>2017</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="12">
         <v>10</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17">
-        <v>5</v>
-      </c>
-      <c r="M48" s="17">
-        <v>1</v>
-      </c>
-      <c r="N48" s="17" t="s">
+      <c r="I48" s="12"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14">
+        <v>5</v>
+      </c>
+      <c r="M48" s="14">
+        <v>1</v>
+      </c>
+      <c r="N48" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="O48" s="16"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="16">
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2">
         <v>3011</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="2">
         <v>3011</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="12">
         <v>10</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17">
-        <v>5</v>
-      </c>
-      <c r="M49" s="17">
-        <v>1</v>
-      </c>
-      <c r="N49" s="17" t="s">
+      <c r="I49" s="12"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14">
+        <v>5</v>
+      </c>
+      <c r="M49" s="14">
+        <v>1</v>
+      </c>
+      <c r="N49" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="O49" s="16"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="16">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2">
         <v>3012</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="2">
         <v>3012</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="12">
         <v>10</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I50" s="15"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17">
-        <v>5</v>
-      </c>
-      <c r="M50" s="17">
-        <v>1</v>
-      </c>
-      <c r="N50" s="17" t="s">
+      <c r="I50" s="12"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14">
+        <v>5</v>
+      </c>
+      <c r="M50" s="14">
+        <v>1</v>
+      </c>
+      <c r="N50" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="16">
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2">
         <v>3013</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="2">
         <v>3013</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <v>10</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17">
-        <v>5</v>
-      </c>
-      <c r="M51" s="17">
-        <v>1</v>
-      </c>
-      <c r="N51" s="17" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14">
+        <v>5</v>
+      </c>
+      <c r="M51" s="14">
+        <v>1</v>
+      </c>
+      <c r="N51" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="16">
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2">
         <v>3014</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="2">
         <v>3014</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="12">
         <v>10</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17">
-        <v>5</v>
-      </c>
-      <c r="M52" s="17">
-        <v>1</v>
-      </c>
-      <c r="N52" s="17" t="s">
+      <c r="I52" s="12"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14">
+        <v>5</v>
+      </c>
+      <c r="M52" s="14">
+        <v>1</v>
+      </c>
+      <c r="N52" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="16">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2">
         <v>3015</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="2">
         <v>3015</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="12">
         <v>10</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17">
-        <v>5</v>
-      </c>
-      <c r="M53" s="17">
-        <v>1</v>
-      </c>
-      <c r="N53" s="17" t="s">
+      <c r="I53" s="12"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14">
+        <v>5</v>
+      </c>
+      <c r="M53" s="14">
+        <v>1</v>
+      </c>
+      <c r="N53" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="16">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2">
         <v>3016</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="2">
         <v>3016</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="12">
         <v>10</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17">
-        <v>5</v>
-      </c>
-      <c r="M54" s="17">
-        <v>1</v>
-      </c>
-      <c r="N54" s="17" t="s">
+      <c r="I54" s="12"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14">
+        <v>5</v>
+      </c>
+      <c r="M54" s="14">
+        <v>1</v>
+      </c>
+      <c r="N54" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="16">
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="2">
         <v>3017</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="2">
         <v>3017</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="12">
         <v>10</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="15"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17">
-        <v>5</v>
-      </c>
-      <c r="M55" s="17">
-        <v>1</v>
-      </c>
-      <c r="N55" s="17" t="s">
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14">
+        <v>5</v>
+      </c>
+      <c r="M55" s="14">
+        <v>1</v>
+      </c>
+      <c r="N55" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>8001</v>
+      </c>
+      <c r="B56" s="1">
+        <v>8001</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="14">
+        <v>500</v>
+      </c>
+      <c r="M56" s="14">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>8002</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8002</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="14">
+        <v>500</v>
+      </c>
+      <c r="M57" s="14">
+        <v>1</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" ht="39.6" spans="1:15">
+      <c r="A58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="B58" s="2">
+        <v>8003</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="14">
+        <v>500</v>
+      </c>
+      <c r="M58" s="14">
+        <v>1</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2">
+        <v>8004</v>
+      </c>
+      <c r="B59" s="2">
+        <v>8004</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="13">
+        <v>3</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="14">
+        <v>600</v>
+      </c>
+      <c r="M59" s="14">
+        <v>1</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" ht="26.4" spans="1:15">
+      <c r="A60" s="2">
+        <v>8005</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8005</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G60" s="13">
+        <v>4</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="14">
+        <v>750</v>
+      </c>
+      <c r="M60" s="14">
+        <v>1</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" ht="26.4" spans="1:15">
+      <c r="A61" s="2">
+        <v>8006</v>
+      </c>
+      <c r="B61" s="2">
+        <v>8006</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" s="13">
+        <v>5</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14">
+        <v>2000</v>
+      </c>
+      <c r="L61" s="14">
+        <v>1000</v>
+      </c>
+      <c r="M61" s="14">
+        <v>1</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" ht="39.6" spans="1:15">
+      <c r="A62" s="2">
+        <v>8007</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8007</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G62" s="13">
+        <v>2</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14">
+        <v>1890</v>
+      </c>
+      <c r="L62" s="14">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="14">
+        <v>1</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" ht="26.4" spans="1:15">
+      <c r="A63" s="2">
+        <v>8008</v>
+      </c>
+      <c r="B63" s="2">
+        <v>8008</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" s="13">
+        <v>4</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L63" s="14">
+        <v>560</v>
+      </c>
+      <c r="M63" s="14">
+        <v>1</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="2">
+        <v>8009</v>
+      </c>
+      <c r="B64" s="2">
+        <v>8009</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="13">
+        <v>6</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14">
+        <v>2300</v>
+      </c>
+      <c r="L64" s="14">
+        <v>690</v>
+      </c>
+      <c r="M64" s="14">
+        <v>1</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="O64" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
